--- a/R/codebooks/conceptsetdataset.xlsx
+++ b/R/codebooks/conceptsetdataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Seafile\CVM\EHR_studies\Readiness\script_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{B4E126EC-040F-4958-A954-611B3194E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB971B4-DACC-4EF5-BD61-C65984211F07}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{B4E126EC-040F-4958-A954-611B3194E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{666A2E56-1921-4EA2-9DB1-7F500BE0E13F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Content of the dataset</t>
   </si>
   <si>
-    <t>these are multiple datasets, one per each conceptset, which is a value in the list c(conceptsets_exact_matching, conceptsets_children_matching), set in 07_algorithms. Each conceptset dataset is named after the conceptset. Each conceptset is associated to a list of codes. The dataset is obtsained by retrieving records from the CDM bearing a code that match one of the codes in the codelist. The matching can be exact (for the conceptsets in conceptsets_exact_matching) or per ascendant (for conceptsets in conceptsets_children_matching) . Recrods are retrieved from the EVENTS table, but also from other tables which may bear a recrod, such as PROCEDURES or VACCINES</t>
+    <t>these are multiple datasets, one per each conceptset, which is a value in the list c(conceptsets_exact_matching, conceptsets_children_matching), set in 07_algorithms. Each conceptset dataset is named after the conceptset. Each conceptset is associated to a list of codes. The dataset is obtained by retrieving records from the CDM bearing a code that match one of the codes in the codelist. The matching can be exact (for the conceptsets in conceptsets_exact_matching) or per ascendant (for conceptsets in conceptsets_children_matching) . Records are retrieved from the EVENTS table, but also from other tables which may bear a record, such as PROCEDURES or VACCINES</t>
   </si>
   <si>
     <t>Unit of observation</t>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC33A7-2A67-4ECD-8925-745B16E53D8D}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" sqref="A1:C1"/>
       <selection pane="bottomLeft"/>
@@ -1370,6 +1370,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8718e4a61e08f80278e3f0325a3727eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f65cc27c03321c69be19df794a0d9ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1620,29 +1641,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A045E743-397E-476C-8B5B-E99F00CCDFC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1650,5 +1650,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A045E743-397E-476C-8B5B-E99F00CCDFC6}"/>
 </file>